--- a/data/audit/ba/ba_gened.xlsx
+++ b/data/audit/ba/ba_gened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B807"/>
+  <dimension ref="A1:C807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>76-101</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>76-102</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>76-106</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>76-107</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>76-108</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>76-001</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>76-200</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>76-201</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>76-202</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>76-203</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>76-204</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>76-205</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>76-206</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>76-207</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>76-208</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>76-209</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>76-210</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>76-211</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>76-212</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +746,9 @@
           <t>76-213</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +761,9 @@
           <t>76-214</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +776,9 @@
           <t>76-215</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
           <t>76-216</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +806,9 @@
           <t>76-217</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
           <t>76-218</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +836,9 @@
           <t>76-219</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +851,9 @@
           <t>76-220</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +866,9 @@
           <t>76-221</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +881,9 @@
           <t>76-222</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +896,9 @@
           <t>76-223</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +911,9 @@
           <t>76-224</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +926,9 @@
           <t>76-225</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +941,9 @@
           <t>76-226</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +956,9 @@
           <t>76-227</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +971,9 @@
           <t>76-228</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +986,9 @@
           <t>76-229</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1001,9 @@
           <t>76-230</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1016,9 @@
           <t>76-231</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1031,9 @@
           <t>76-232</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1046,9 @@
           <t>76-233</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1061,9 @@
           <t>76-234</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1076,9 @@
           <t>76-235</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1091,9 @@
           <t>76-236</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1106,9 @@
           <t>76-237</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1121,9 @@
           <t>76-238</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1136,9 @@
           <t>76-239</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1151,9 @@
           <t>76-240</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1166,9 @@
           <t>76-241</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1181,9 @@
           <t>76-242</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1196,9 @@
           <t>76-243</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1211,9 @@
           <t>76-244</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1226,9 @@
           <t>76-245</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1241,9 @@
           <t>76-246</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1256,9 @@
           <t>76-247</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1271,9 @@
           <t>76-248</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1286,9 @@
           <t>76-249</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1301,9 @@
           <t>76-250</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1316,9 @@
           <t>76-251</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1331,9 @@
           <t>76-252</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1346,9 @@
           <t>76-253</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1361,9 @@
           <t>76-254</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1376,9 @@
           <t>76-255</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1391,9 @@
           <t>76-256</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1406,9 @@
           <t>76-257</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1421,9 @@
           <t>76-258</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +1436,9 @@
           <t>76-259</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1248,6 +1451,9 @@
           <t>76-260</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1260,6 +1466,9 @@
           <t>76-261</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1272,6 +1481,9 @@
           <t>76-262</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1284,6 +1496,9 @@
           <t>76-263</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1296,6 +1511,9 @@
           <t>76-264</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1308,6 +1526,9 @@
           <t>76-265</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1320,6 +1541,9 @@
           <t>76-266</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1332,6 +1556,9 @@
           <t>76-267</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1344,6 +1571,9 @@
           <t>76-268</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1356,6 +1586,9 @@
           <t>76-269</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1368,6 +1601,9 @@
           <t>76-270</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1380,6 +1616,9 @@
           <t>76-271</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1392,6 +1631,9 @@
           <t>76-272</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1404,6 +1646,9 @@
           <t>76-273</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1416,6 +1661,9 @@
           <t>76-274</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1428,6 +1676,9 @@
           <t>76-275</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1440,6 +1691,9 @@
           <t>76-276</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1452,6 +1706,9 @@
           <t>76-277</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1464,6 +1721,9 @@
           <t>76-278</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1476,6 +1736,9 @@
           <t>76-279</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1488,6 +1751,9 @@
           <t>76-280</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1500,6 +1766,9 @@
           <t>76-281</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1512,6 +1781,9 @@
           <t>76-282</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1524,6 +1796,9 @@
           <t>76-283</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1536,6 +1811,9 @@
           <t>76-284</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1548,6 +1826,9 @@
           <t>76-285</t>
         </is>
       </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1560,6 +1841,9 @@
           <t>76-286</t>
         </is>
       </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1572,6 +1856,9 @@
           <t>76-287</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1584,6 +1871,9 @@
           <t>76-288</t>
         </is>
       </c>
+      <c r="C96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1596,6 +1886,9 @@
           <t>76-289</t>
         </is>
       </c>
+      <c r="C97" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1608,6 +1901,9 @@
           <t>76-290</t>
         </is>
       </c>
+      <c r="C98" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1620,6 +1916,9 @@
           <t>76-291</t>
         </is>
       </c>
+      <c r="C99" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1632,6 +1931,9 @@
           <t>76-292</t>
         </is>
       </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1644,6 +1946,9 @@
           <t>76-293</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1656,6 +1961,9 @@
           <t>76-294</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1668,6 +1976,9 @@
           <t>76-295</t>
         </is>
       </c>
+      <c r="C103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1680,6 +1991,9 @@
           <t>76-296</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1692,6 +2006,9 @@
           <t>76-297</t>
         </is>
       </c>
+      <c r="C105" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1704,6 +2021,9 @@
           <t>76-298</t>
         </is>
       </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1716,6 +2036,9 @@
           <t>76-299</t>
         </is>
       </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1728,6 +2051,9 @@
           <t>76-300</t>
         </is>
       </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1740,6 +2066,9 @@
           <t>76-301</t>
         </is>
       </c>
+      <c r="C109" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1752,6 +2081,9 @@
           <t>76-302</t>
         </is>
       </c>
+      <c r="C110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1764,6 +2096,9 @@
           <t>76-303</t>
         </is>
       </c>
+      <c r="C111" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1776,6 +2111,9 @@
           <t>76-304</t>
         </is>
       </c>
+      <c r="C112" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1788,6 +2126,9 @@
           <t>76-305</t>
         </is>
       </c>
+      <c r="C113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1800,6 +2141,9 @@
           <t>76-306</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1812,6 +2156,9 @@
           <t>76-307</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1824,6 +2171,9 @@
           <t>76-308</t>
         </is>
       </c>
+      <c r="C116" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1836,6 +2186,9 @@
           <t>76-309</t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1848,6 +2201,9 @@
           <t>76-310</t>
         </is>
       </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1860,6 +2216,9 @@
           <t>76-311</t>
         </is>
       </c>
+      <c r="C119" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1872,6 +2231,9 @@
           <t>76-312</t>
         </is>
       </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1884,6 +2246,9 @@
           <t>76-313</t>
         </is>
       </c>
+      <c r="C121" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1896,6 +2261,9 @@
           <t>76-314</t>
         </is>
       </c>
+      <c r="C122" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1908,6 +2276,9 @@
           <t>76-315</t>
         </is>
       </c>
+      <c r="C123" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1920,6 +2291,9 @@
           <t>76-316</t>
         </is>
       </c>
+      <c r="C124" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1932,6 +2306,9 @@
           <t>76-317</t>
         </is>
       </c>
+      <c r="C125" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1944,6 +2321,9 @@
           <t>76-318</t>
         </is>
       </c>
+      <c r="C126" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1956,6 +2336,9 @@
           <t>76-319</t>
         </is>
       </c>
+      <c r="C127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1968,6 +2351,9 @@
           <t>76-320</t>
         </is>
       </c>
+      <c r="C128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1980,6 +2366,9 @@
           <t>76-321</t>
         </is>
       </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1992,6 +2381,9 @@
           <t>76-322</t>
         </is>
       </c>
+      <c r="C130" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2004,6 +2396,9 @@
           <t>76-323</t>
         </is>
       </c>
+      <c r="C131" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2016,6 +2411,9 @@
           <t>76-324</t>
         </is>
       </c>
+      <c r="C132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2028,6 +2426,9 @@
           <t>76-325</t>
         </is>
       </c>
+      <c r="C133" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2040,6 +2441,9 @@
           <t>76-326</t>
         </is>
       </c>
+      <c r="C134" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2052,6 +2456,9 @@
           <t>76-327</t>
         </is>
       </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2064,6 +2471,9 @@
           <t>76-328</t>
         </is>
       </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2076,6 +2486,9 @@
           <t>76-329</t>
         </is>
       </c>
+      <c r="C137" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2088,6 +2501,9 @@
           <t>76-330</t>
         </is>
       </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2100,6 +2516,9 @@
           <t>76-331</t>
         </is>
       </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2112,6 +2531,9 @@
           <t>76-332</t>
         </is>
       </c>
+      <c r="C140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2124,6 +2546,9 @@
           <t>76-333</t>
         </is>
       </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2136,6 +2561,9 @@
           <t>76-334</t>
         </is>
       </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2148,6 +2576,9 @@
           <t>76-335</t>
         </is>
       </c>
+      <c r="C143" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2160,6 +2591,9 @@
           <t>76-336</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2172,6 +2606,9 @@
           <t>76-337</t>
         </is>
       </c>
+      <c r="C145" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2184,6 +2621,9 @@
           <t>76-338</t>
         </is>
       </c>
+      <c r="C146" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2196,6 +2636,9 @@
           <t>76-339</t>
         </is>
       </c>
+      <c r="C147" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2208,6 +2651,9 @@
           <t>76-340</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2220,6 +2666,9 @@
           <t>76-341</t>
         </is>
       </c>
+      <c r="C149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2232,6 +2681,9 @@
           <t>76-342</t>
         </is>
       </c>
+      <c r="C150" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2244,6 +2696,9 @@
           <t>76-343</t>
         </is>
       </c>
+      <c r="C151" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2256,6 +2711,9 @@
           <t>76-344</t>
         </is>
       </c>
+      <c r="C152" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2268,6 +2726,9 @@
           <t>76-345</t>
         </is>
       </c>
+      <c r="C153" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2280,6 +2741,9 @@
           <t>76-346</t>
         </is>
       </c>
+      <c r="C154" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2292,6 +2756,9 @@
           <t>76-347</t>
         </is>
       </c>
+      <c r="C155" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2304,6 +2771,9 @@
           <t>76-348</t>
         </is>
       </c>
+      <c r="C156" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2316,6 +2786,9 @@
           <t>76-349</t>
         </is>
       </c>
+      <c r="C157" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2328,6 +2801,9 @@
           <t>76-350</t>
         </is>
       </c>
+      <c r="C158" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2340,6 +2816,9 @@
           <t>76-351</t>
         </is>
       </c>
+      <c r="C159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2352,6 +2831,9 @@
           <t>76-352</t>
         </is>
       </c>
+      <c r="C160" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2364,6 +2846,9 @@
           <t>76-353</t>
         </is>
       </c>
+      <c r="C161" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2376,6 +2861,9 @@
           <t>76-354</t>
         </is>
       </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2388,6 +2876,9 @@
           <t>76-355</t>
         </is>
       </c>
+      <c r="C163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2400,6 +2891,9 @@
           <t>76-356</t>
         </is>
       </c>
+      <c r="C164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2412,6 +2906,9 @@
           <t>76-357</t>
         </is>
       </c>
+      <c r="C165" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2424,6 +2921,9 @@
           <t>76-358</t>
         </is>
       </c>
+      <c r="C166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2436,6 +2936,9 @@
           <t>76-359</t>
         </is>
       </c>
+      <c r="C167" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2448,6 +2951,9 @@
           <t>76-360</t>
         </is>
       </c>
+      <c r="C168" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2460,6 +2966,9 @@
           <t>76-361</t>
         </is>
       </c>
+      <c r="C169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2472,6 +2981,9 @@
           <t>76-362</t>
         </is>
       </c>
+      <c r="C170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2484,6 +2996,9 @@
           <t>76-363</t>
         </is>
       </c>
+      <c r="C171" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2496,6 +3011,9 @@
           <t>76-364</t>
         </is>
       </c>
+      <c r="C172" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2508,6 +3026,9 @@
           <t>76-365</t>
         </is>
       </c>
+      <c r="C173" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2520,6 +3041,9 @@
           <t>76-366</t>
         </is>
       </c>
+      <c r="C174" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2532,6 +3056,9 @@
           <t>76-367</t>
         </is>
       </c>
+      <c r="C175" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2544,6 +3071,9 @@
           <t>76-368</t>
         </is>
       </c>
+      <c r="C176" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2556,6 +3086,9 @@
           <t>76-369</t>
         </is>
       </c>
+      <c r="C177" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2568,6 +3101,9 @@
           <t>76-370</t>
         </is>
       </c>
+      <c r="C178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2580,6 +3116,9 @@
           <t>76-371</t>
         </is>
       </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2592,6 +3131,9 @@
           <t>76-372</t>
         </is>
       </c>
+      <c r="C180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2604,6 +3146,9 @@
           <t>76-373</t>
         </is>
       </c>
+      <c r="C181" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2616,6 +3161,9 @@
           <t>76-374</t>
         </is>
       </c>
+      <c r="C182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2628,6 +3176,9 @@
           <t>76-375</t>
         </is>
       </c>
+      <c r="C183" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2640,6 +3191,9 @@
           <t>76-376</t>
         </is>
       </c>
+      <c r="C184" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2652,6 +3206,9 @@
           <t>76-377</t>
         </is>
       </c>
+      <c r="C185" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2664,6 +3221,9 @@
           <t>76-378</t>
         </is>
       </c>
+      <c r="C186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2676,6 +3236,9 @@
           <t>76-379</t>
         </is>
       </c>
+      <c r="C187" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2688,6 +3251,9 @@
           <t>76-380</t>
         </is>
       </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2700,6 +3266,9 @@
           <t>76-381</t>
         </is>
       </c>
+      <c r="C189" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2712,6 +3281,9 @@
           <t>76-382</t>
         </is>
       </c>
+      <c r="C190" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2724,6 +3296,9 @@
           <t>76-383</t>
         </is>
       </c>
+      <c r="C191" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2736,6 +3311,9 @@
           <t>76-384</t>
         </is>
       </c>
+      <c r="C192" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2748,6 +3326,9 @@
           <t>76-385</t>
         </is>
       </c>
+      <c r="C193" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2760,6 +3341,9 @@
           <t>76-386</t>
         </is>
       </c>
+      <c r="C194" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2772,6 +3356,9 @@
           <t>76-387</t>
         </is>
       </c>
+      <c r="C195" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2784,6 +3371,9 @@
           <t>76-388</t>
         </is>
       </c>
+      <c r="C196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2796,6 +3386,9 @@
           <t>76-389</t>
         </is>
       </c>
+      <c r="C197" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2808,6 +3401,9 @@
           <t>76-390</t>
         </is>
       </c>
+      <c r="C198" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2820,6 +3416,9 @@
           <t>76-391</t>
         </is>
       </c>
+      <c r="C199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2832,6 +3431,9 @@
           <t>76-392</t>
         </is>
       </c>
+      <c r="C200" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2844,6 +3446,9 @@
           <t>76-393</t>
         </is>
       </c>
+      <c r="C201" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2856,6 +3461,9 @@
           <t>76-394</t>
         </is>
       </c>
+      <c r="C202" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2868,6 +3476,9 @@
           <t>76-395</t>
         </is>
       </c>
+      <c r="C203" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2880,6 +3491,9 @@
           <t>76-396</t>
         </is>
       </c>
+      <c r="C204" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2892,6 +3506,9 @@
           <t>76-397</t>
         </is>
       </c>
+      <c r="C205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2904,6 +3521,9 @@
           <t>76-398</t>
         </is>
       </c>
+      <c r="C206" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2916,6 +3536,9 @@
           <t>76-399</t>
         </is>
       </c>
+      <c r="C207" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2928,6 +3551,9 @@
           <t>76-400</t>
         </is>
       </c>
+      <c r="C208" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2940,6 +3566,9 @@
           <t>76-401</t>
         </is>
       </c>
+      <c r="C209" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2952,6 +3581,9 @@
           <t>76-402</t>
         </is>
       </c>
+      <c r="C210" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2964,6 +3596,9 @@
           <t>76-403</t>
         </is>
       </c>
+      <c r="C211" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2976,6 +3611,9 @@
           <t>76-404</t>
         </is>
       </c>
+      <c r="C212" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2988,6 +3626,9 @@
           <t>76-405</t>
         </is>
       </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3000,6 +3641,9 @@
           <t>76-406</t>
         </is>
       </c>
+      <c r="C214" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3012,6 +3656,9 @@
           <t>76-407</t>
         </is>
       </c>
+      <c r="C215" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3024,6 +3671,9 @@
           <t>76-408</t>
         </is>
       </c>
+      <c r="C216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3036,6 +3686,9 @@
           <t>76-409</t>
         </is>
       </c>
+      <c r="C217" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3048,6 +3701,9 @@
           <t>76-410</t>
         </is>
       </c>
+      <c r="C218" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3060,6 +3716,9 @@
           <t>76-411</t>
         </is>
       </c>
+      <c r="C219" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3072,6 +3731,9 @@
           <t>76-412</t>
         </is>
       </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3084,6 +3746,9 @@
           <t>76-413</t>
         </is>
       </c>
+      <c r="C221" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3096,6 +3761,9 @@
           <t>76-414</t>
         </is>
       </c>
+      <c r="C222" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3108,6 +3776,9 @@
           <t>76-415</t>
         </is>
       </c>
+      <c r="C223" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3120,6 +3791,9 @@
           <t>76-416</t>
         </is>
       </c>
+      <c r="C224" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3132,6 +3806,9 @@
           <t>76-417</t>
         </is>
       </c>
+      <c r="C225" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3144,6 +3821,9 @@
           <t>76-418</t>
         </is>
       </c>
+      <c r="C226" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3156,6 +3836,9 @@
           <t>76-419</t>
         </is>
       </c>
+      <c r="C227" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3168,6 +3851,9 @@
           <t>76-420</t>
         </is>
       </c>
+      <c r="C228" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3180,6 +3866,9 @@
           <t>76-421</t>
         </is>
       </c>
+      <c r="C229" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3192,6 +3881,9 @@
           <t>76-422</t>
         </is>
       </c>
+      <c r="C230" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3204,6 +3896,9 @@
           <t>76-423</t>
         </is>
       </c>
+      <c r="C231" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3216,6 +3911,9 @@
           <t>76-424</t>
         </is>
       </c>
+      <c r="C232" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3228,6 +3926,9 @@
           <t>76-425</t>
         </is>
       </c>
+      <c r="C233" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3240,6 +3941,9 @@
           <t>76-426</t>
         </is>
       </c>
+      <c r="C234" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3252,6 +3956,9 @@
           <t>76-427</t>
         </is>
       </c>
+      <c r="C235" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3264,6 +3971,9 @@
           <t>76-428</t>
         </is>
       </c>
+      <c r="C236" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3276,6 +3986,9 @@
           <t>76-429</t>
         </is>
       </c>
+      <c r="C237" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3288,6 +4001,9 @@
           <t>76-430</t>
         </is>
       </c>
+      <c r="C238" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3300,6 +4016,9 @@
           <t>76-431</t>
         </is>
       </c>
+      <c r="C239" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3312,6 +4031,9 @@
           <t>76-432</t>
         </is>
       </c>
+      <c r="C240" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3324,6 +4046,9 @@
           <t>76-433</t>
         </is>
       </c>
+      <c r="C241" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3336,6 +4061,9 @@
           <t>76-434</t>
         </is>
       </c>
+      <c r="C242" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3348,6 +4076,9 @@
           <t>76-435</t>
         </is>
       </c>
+      <c r="C243" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3360,6 +4091,9 @@
           <t>76-436</t>
         </is>
       </c>
+      <c r="C244" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3372,6 +4106,9 @@
           <t>76-437</t>
         </is>
       </c>
+      <c r="C245" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3384,6 +4121,9 @@
           <t>76-438</t>
         </is>
       </c>
+      <c r="C246" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3396,6 +4136,9 @@
           <t>76-439</t>
         </is>
       </c>
+      <c r="C247" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3408,6 +4151,9 @@
           <t>76-440</t>
         </is>
       </c>
+      <c r="C248" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3420,6 +4166,9 @@
           <t>76-441</t>
         </is>
       </c>
+      <c r="C249" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3432,6 +4181,9 @@
           <t>76-442</t>
         </is>
       </c>
+      <c r="C250" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3444,6 +4196,9 @@
           <t>76-443</t>
         </is>
       </c>
+      <c r="C251" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3456,6 +4211,9 @@
           <t>76-444</t>
         </is>
       </c>
+      <c r="C252" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3468,6 +4226,9 @@
           <t>76-445</t>
         </is>
       </c>
+      <c r="C253" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3480,6 +4241,9 @@
           <t>76-446</t>
         </is>
       </c>
+      <c r="C254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3492,6 +4256,9 @@
           <t>76-447</t>
         </is>
       </c>
+      <c r="C255" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3504,6 +4271,9 @@
           <t>76-448</t>
         </is>
       </c>
+      <c r="C256" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3516,6 +4286,9 @@
           <t>76-449</t>
         </is>
       </c>
+      <c r="C257" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3528,6 +4301,9 @@
           <t>76-450</t>
         </is>
       </c>
+      <c r="C258" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3540,6 +4316,9 @@
           <t>76-451</t>
         </is>
       </c>
+      <c r="C259" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3552,6 +4331,9 @@
           <t>76-452</t>
         </is>
       </c>
+      <c r="C260" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3564,6 +4346,9 @@
           <t>76-453</t>
         </is>
       </c>
+      <c r="C261" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3576,6 +4361,9 @@
           <t>76-454</t>
         </is>
       </c>
+      <c r="C262" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3588,6 +4376,9 @@
           <t>76-455</t>
         </is>
       </c>
+      <c r="C263" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3600,6 +4391,9 @@
           <t>76-456</t>
         </is>
       </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3612,6 +4406,9 @@
           <t>76-457</t>
         </is>
       </c>
+      <c r="C265" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3624,6 +4421,9 @@
           <t>76-458</t>
         </is>
       </c>
+      <c r="C266" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3636,6 +4436,9 @@
           <t>76-459</t>
         </is>
       </c>
+      <c r="C267" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3648,6 +4451,9 @@
           <t>76-460</t>
         </is>
       </c>
+      <c r="C268" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3660,6 +4466,9 @@
           <t>76-461</t>
         </is>
       </c>
+      <c r="C269" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -3672,6 +4481,9 @@
           <t>76-462</t>
         </is>
       </c>
+      <c r="C270" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3684,6 +4496,9 @@
           <t>76-463</t>
         </is>
       </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3696,6 +4511,9 @@
           <t>76-464</t>
         </is>
       </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3708,6 +4526,9 @@
           <t>76-465</t>
         </is>
       </c>
+      <c r="C273" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3720,6 +4541,9 @@
           <t>76-466</t>
         </is>
       </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3732,6 +4556,9 @@
           <t>76-467</t>
         </is>
       </c>
+      <c r="C275" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3744,6 +4571,9 @@
           <t>76-468</t>
         </is>
       </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3756,6 +4586,9 @@
           <t>76-469</t>
         </is>
       </c>
+      <c r="C277" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -3768,6 +4601,9 @@
           <t>76-470</t>
         </is>
       </c>
+      <c r="C278" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3780,6 +4616,9 @@
           <t>76-471</t>
         </is>
       </c>
+      <c r="C279" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3792,6 +4631,9 @@
           <t>76-472</t>
         </is>
       </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -3804,6 +4646,9 @@
           <t>76-473</t>
         </is>
       </c>
+      <c r="C281" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3816,6 +4661,9 @@
           <t>76-474</t>
         </is>
       </c>
+      <c r="C282" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -3828,6 +4676,9 @@
           <t>76-475</t>
         </is>
       </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3840,6 +4691,9 @@
           <t>76-476</t>
         </is>
       </c>
+      <c r="C284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3852,6 +4706,9 @@
           <t>76-477</t>
         </is>
       </c>
+      <c r="C285" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3864,6 +4721,9 @@
           <t>76-478</t>
         </is>
       </c>
+      <c r="C286" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -3876,6 +4736,9 @@
           <t>76-479</t>
         </is>
       </c>
+      <c r="C287" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3888,6 +4751,9 @@
           <t>76-480</t>
         </is>
       </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -3900,6 +4766,9 @@
           <t>76-481</t>
         </is>
       </c>
+      <c r="C289" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -3912,6 +4781,9 @@
           <t>76-482</t>
         </is>
       </c>
+      <c r="C290" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -3924,6 +4796,9 @@
           <t>76-483</t>
         </is>
       </c>
+      <c r="C291" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -3936,6 +4811,9 @@
           <t>76-484</t>
         </is>
       </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -3948,6 +4826,9 @@
           <t>76-485</t>
         </is>
       </c>
+      <c r="C293" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -3960,6 +4841,9 @@
           <t>76-486</t>
         </is>
       </c>
+      <c r="C294" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -3972,6 +4856,9 @@
           <t>76-487</t>
         </is>
       </c>
+      <c r="C295" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -3984,6 +4871,9 @@
           <t>76-488</t>
         </is>
       </c>
+      <c r="C296" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -3996,6 +4886,9 @@
           <t>76-489</t>
         </is>
       </c>
+      <c r="C297" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4008,6 +4901,9 @@
           <t>76-490</t>
         </is>
       </c>
+      <c r="C298" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4020,6 +4916,9 @@
           <t>76-491</t>
         </is>
       </c>
+      <c r="C299" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4032,6 +4931,9 @@
           <t>76-492</t>
         </is>
       </c>
+      <c r="C300" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4044,6 +4946,9 @@
           <t>76-493</t>
         </is>
       </c>
+      <c r="C301" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4056,6 +4961,9 @@
           <t>76-494</t>
         </is>
       </c>
+      <c r="C302" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4068,6 +4976,9 @@
           <t>76-495</t>
         </is>
       </c>
+      <c r="C303" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4080,6 +4991,9 @@
           <t>76-496</t>
         </is>
       </c>
+      <c r="C304" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4092,6 +5006,9 @@
           <t>76-497</t>
         </is>
       </c>
+      <c r="C305" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4104,6 +5021,9 @@
           <t>76-498</t>
         </is>
       </c>
+      <c r="C306" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4116,6 +5036,9 @@
           <t>76-499</t>
         </is>
       </c>
+      <c r="C307" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4128,6 +5051,9 @@
           <t>76-500</t>
         </is>
       </c>
+      <c r="C308" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4140,6 +5066,9 @@
           <t>76-501</t>
         </is>
       </c>
+      <c r="C309" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4152,6 +5081,9 @@
           <t>76-502</t>
         </is>
       </c>
+      <c r="C310" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4164,6 +5096,9 @@
           <t>76-503</t>
         </is>
       </c>
+      <c r="C311" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4176,6 +5111,9 @@
           <t>76-504</t>
         </is>
       </c>
+      <c r="C312" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4188,6 +5126,9 @@
           <t>76-505</t>
         </is>
       </c>
+      <c r="C313" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4200,6 +5141,9 @@
           <t>76-506</t>
         </is>
       </c>
+      <c r="C314" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4212,6 +5156,9 @@
           <t>76-507</t>
         </is>
       </c>
+      <c r="C315" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4224,6 +5171,9 @@
           <t>76-508</t>
         </is>
       </c>
+      <c r="C316" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4236,6 +5186,9 @@
           <t>76-509</t>
         </is>
       </c>
+      <c r="C317" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4248,6 +5201,9 @@
           <t>76-510</t>
         </is>
       </c>
+      <c r="C318" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4260,6 +5216,9 @@
           <t>76-511</t>
         </is>
       </c>
+      <c r="C319" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4272,6 +5231,9 @@
           <t>76-512</t>
         </is>
       </c>
+      <c r="C320" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -4284,6 +5246,9 @@
           <t>76-513</t>
         </is>
       </c>
+      <c r="C321" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4296,6 +5261,9 @@
           <t>76-514</t>
         </is>
       </c>
+      <c r="C322" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4308,6 +5276,9 @@
           <t>76-515</t>
         </is>
       </c>
+      <c r="C323" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4320,6 +5291,9 @@
           <t>76-516</t>
         </is>
       </c>
+      <c r="C324" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4332,6 +5306,9 @@
           <t>76-517</t>
         </is>
       </c>
+      <c r="C325" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4344,6 +5321,9 @@
           <t>76-518</t>
         </is>
       </c>
+      <c r="C326" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4356,6 +5336,9 @@
           <t>76-519</t>
         </is>
       </c>
+      <c r="C327" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4368,6 +5351,9 @@
           <t>76-520</t>
         </is>
       </c>
+      <c r="C328" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4380,6 +5366,9 @@
           <t>76-521</t>
         </is>
       </c>
+      <c r="C329" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -4392,6 +5381,9 @@
           <t>76-522</t>
         </is>
       </c>
+      <c r="C330" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -4404,6 +5396,9 @@
           <t>76-523</t>
         </is>
       </c>
+      <c r="C331" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -4416,6 +5411,9 @@
           <t>76-524</t>
         </is>
       </c>
+      <c r="C332" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -4428,6 +5426,9 @@
           <t>76-525</t>
         </is>
       </c>
+      <c r="C333" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -4440,6 +5441,9 @@
           <t>76-526</t>
         </is>
       </c>
+      <c r="C334" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4452,6 +5456,9 @@
           <t>76-527</t>
         </is>
       </c>
+      <c r="C335" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -4464,6 +5471,9 @@
           <t>76-528</t>
         </is>
       </c>
+      <c r="C336" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -4476,6 +5486,9 @@
           <t>76-529</t>
         </is>
       </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -4488,6 +5501,9 @@
           <t>76-530</t>
         </is>
       </c>
+      <c r="C338" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -4500,6 +5516,9 @@
           <t>76-531</t>
         </is>
       </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -4512,6 +5531,9 @@
           <t>76-532</t>
         </is>
       </c>
+      <c r="C340" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -4524,6 +5546,9 @@
           <t>76-533</t>
         </is>
       </c>
+      <c r="C341" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -4536,6 +5561,9 @@
           <t>76-534</t>
         </is>
       </c>
+      <c r="C342" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -4548,6 +5576,9 @@
           <t>76-535</t>
         </is>
       </c>
+      <c r="C343" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -4560,6 +5591,9 @@
           <t>76-536</t>
         </is>
       </c>
+      <c r="C344" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -4572,6 +5606,9 @@
           <t>76-537</t>
         </is>
       </c>
+      <c r="C345" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -4584,6 +5621,9 @@
           <t>76-538</t>
         </is>
       </c>
+      <c r="C346" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -4596,6 +5636,9 @@
           <t>76-539</t>
         </is>
       </c>
+      <c r="C347" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -4608,6 +5651,9 @@
           <t>76-540</t>
         </is>
       </c>
+      <c r="C348" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -4620,6 +5666,9 @@
           <t>76-541</t>
         </is>
       </c>
+      <c r="C349" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -4632,6 +5681,9 @@
           <t>76-542</t>
         </is>
       </c>
+      <c r="C350" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -4644,6 +5696,9 @@
           <t>76-543</t>
         </is>
       </c>
+      <c r="C351" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -4656,6 +5711,9 @@
           <t>76-544</t>
         </is>
       </c>
+      <c r="C352" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -4668,6 +5726,9 @@
           <t>76-545</t>
         </is>
       </c>
+      <c r="C353" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -4680,6 +5741,9 @@
           <t>76-546</t>
         </is>
       </c>
+      <c r="C354" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -4692,6 +5756,9 @@
           <t>76-547</t>
         </is>
       </c>
+      <c r="C355" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -4704,6 +5771,9 @@
           <t>76-548</t>
         </is>
       </c>
+      <c r="C356" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -4716,6 +5786,9 @@
           <t>76-549</t>
         </is>
       </c>
+      <c r="C357" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -4728,6 +5801,9 @@
           <t>76-550</t>
         </is>
       </c>
+      <c r="C358" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -4740,6 +5816,9 @@
           <t>76-551</t>
         </is>
       </c>
+      <c r="C359" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -4752,6 +5831,9 @@
           <t>76-552</t>
         </is>
       </c>
+      <c r="C360" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -4764,6 +5846,9 @@
           <t>76-553</t>
         </is>
       </c>
+      <c r="C361" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -4776,6 +5861,9 @@
           <t>76-554</t>
         </is>
       </c>
+      <c r="C362" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -4788,6 +5876,9 @@
           <t>76-555</t>
         </is>
       </c>
+      <c r="C363" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -4800,6 +5891,9 @@
           <t>76-556</t>
         </is>
       </c>
+      <c r="C364" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -4812,6 +5906,9 @@
           <t>76-557</t>
         </is>
       </c>
+      <c r="C365" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -4824,6 +5921,9 @@
           <t>76-558</t>
         </is>
       </c>
+      <c r="C366" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -4836,6 +5936,9 @@
           <t>76-559</t>
         </is>
       </c>
+      <c r="C367" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -4848,6 +5951,9 @@
           <t>76-560</t>
         </is>
       </c>
+      <c r="C368" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -4860,6 +5966,9 @@
           <t>76-561</t>
         </is>
       </c>
+      <c r="C369" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -4872,6 +5981,9 @@
           <t>76-562</t>
         </is>
       </c>
+      <c r="C370" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -4884,6 +5996,9 @@
           <t>76-563</t>
         </is>
       </c>
+      <c r="C371" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -4896,6 +6011,9 @@
           <t>76-564</t>
         </is>
       </c>
+      <c r="C372" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -4908,6 +6026,9 @@
           <t>76-565</t>
         </is>
       </c>
+      <c r="C373" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -4920,6 +6041,9 @@
           <t>76-566</t>
         </is>
       </c>
+      <c r="C374" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -4932,6 +6056,9 @@
           <t>76-567</t>
         </is>
       </c>
+      <c r="C375" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -4944,6 +6071,9 @@
           <t>76-568</t>
         </is>
       </c>
+      <c r="C376" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -4956,6 +6086,9 @@
           <t>76-569</t>
         </is>
       </c>
+      <c r="C377" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -4968,6 +6101,9 @@
           <t>76-570</t>
         </is>
       </c>
+      <c r="C378" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -4980,6 +6116,9 @@
           <t>76-571</t>
         </is>
       </c>
+      <c r="C379" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -4992,6 +6131,9 @@
           <t>76-572</t>
         </is>
       </c>
+      <c r="C380" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -5004,6 +6146,9 @@
           <t>76-573</t>
         </is>
       </c>
+      <c r="C381" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -5016,6 +6161,9 @@
           <t>76-574</t>
         </is>
       </c>
+      <c r="C382" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -5028,6 +6176,9 @@
           <t>76-575</t>
         </is>
       </c>
+      <c r="C383" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -5040,6 +6191,9 @@
           <t>76-576</t>
         </is>
       </c>
+      <c r="C384" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -5052,6 +6206,9 @@
           <t>76-577</t>
         </is>
       </c>
+      <c r="C385" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -5064,6 +6221,9 @@
           <t>76-578</t>
         </is>
       </c>
+      <c r="C386" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -5076,6 +6236,9 @@
           <t>76-579</t>
         </is>
       </c>
+      <c r="C387" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -5088,6 +6251,9 @@
           <t>76-580</t>
         </is>
       </c>
+      <c r="C388" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -5100,6 +6266,9 @@
           <t>76-581</t>
         </is>
       </c>
+      <c r="C389" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -5112,6 +6281,9 @@
           <t>76-582</t>
         </is>
       </c>
+      <c r="C390" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -5124,6 +6296,9 @@
           <t>76-583</t>
         </is>
       </c>
+      <c r="C391" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -5136,6 +6311,9 @@
           <t>76-584</t>
         </is>
       </c>
+      <c r="C392" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -5148,6 +6326,9 @@
           <t>76-585</t>
         </is>
       </c>
+      <c r="C393" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -5160,6 +6341,9 @@
           <t>76-586</t>
         </is>
       </c>
+      <c r="C394" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -5172,6 +6356,9 @@
           <t>76-587</t>
         </is>
       </c>
+      <c r="C395" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -5184,6 +6371,9 @@
           <t>76-588</t>
         </is>
       </c>
+      <c r="C396" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -5196,6 +6386,9 @@
           <t>76-589</t>
         </is>
       </c>
+      <c r="C397" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -5208,6 +6401,9 @@
           <t>76-590</t>
         </is>
       </c>
+      <c r="C398" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -5220,6 +6416,9 @@
           <t>76-591</t>
         </is>
       </c>
+      <c r="C399" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -5232,6 +6431,9 @@
           <t>76-592</t>
         </is>
       </c>
+      <c r="C400" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -5244,6 +6446,9 @@
           <t>76-593</t>
         </is>
       </c>
+      <c r="C401" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -5256,6 +6461,9 @@
           <t>76-594</t>
         </is>
       </c>
+      <c r="C402" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -5268,6 +6476,9 @@
           <t>76-595</t>
         </is>
       </c>
+      <c r="C403" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -5280,6 +6491,9 @@
           <t>76-596</t>
         </is>
       </c>
+      <c r="C404" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -5292,6 +6506,9 @@
           <t>76-597</t>
         </is>
       </c>
+      <c r="C405" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -5304,6 +6521,9 @@
           <t>76-598</t>
         </is>
       </c>
+      <c r="C406" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -5316,6 +6536,9 @@
           <t>76-599</t>
         </is>
       </c>
+      <c r="C407" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -5328,6 +6551,9 @@
           <t>76-600</t>
         </is>
       </c>
+      <c r="C408" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -5340,6 +6566,9 @@
           <t>76-601</t>
         </is>
       </c>
+      <c r="C409" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -5352,6 +6581,9 @@
           <t>76-602</t>
         </is>
       </c>
+      <c r="C410" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -5364,6 +6596,9 @@
           <t>76-603</t>
         </is>
       </c>
+      <c r="C411" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -5376,6 +6611,9 @@
           <t>76-604</t>
         </is>
       </c>
+      <c r="C412" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -5388,6 +6626,9 @@
           <t>76-605</t>
         </is>
       </c>
+      <c r="C413" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -5400,6 +6641,9 @@
           <t>76-606</t>
         </is>
       </c>
+      <c r="C414" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -5412,6 +6656,9 @@
           <t>76-607</t>
         </is>
       </c>
+      <c r="C415" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -5424,6 +6671,9 @@
           <t>76-608</t>
         </is>
       </c>
+      <c r="C416" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -5436,6 +6686,9 @@
           <t>76-609</t>
         </is>
       </c>
+      <c r="C417" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -5448,6 +6701,9 @@
           <t>76-610</t>
         </is>
       </c>
+      <c r="C418" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -5460,6 +6716,9 @@
           <t>76-611</t>
         </is>
       </c>
+      <c r="C419" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -5472,6 +6731,9 @@
           <t>76-612</t>
         </is>
       </c>
+      <c r="C420" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -5484,6 +6746,9 @@
           <t>76-613</t>
         </is>
       </c>
+      <c r="C421" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -5496,6 +6761,9 @@
           <t>76-614</t>
         </is>
       </c>
+      <c r="C422" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -5508,6 +6776,9 @@
           <t>76-615</t>
         </is>
       </c>
+      <c r="C423" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -5520,6 +6791,9 @@
           <t>76-616</t>
         </is>
       </c>
+      <c r="C424" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -5532,6 +6806,9 @@
           <t>76-617</t>
         </is>
       </c>
+      <c r="C425" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -5544,6 +6821,9 @@
           <t>76-618</t>
         </is>
       </c>
+      <c r="C426" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -5556,6 +6836,9 @@
           <t>76-619</t>
         </is>
       </c>
+      <c r="C427" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -5568,6 +6851,9 @@
           <t>76-620</t>
         </is>
       </c>
+      <c r="C428" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -5580,6 +6866,9 @@
           <t>76-621</t>
         </is>
       </c>
+      <c r="C429" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -5592,6 +6881,9 @@
           <t>76-622</t>
         </is>
       </c>
+      <c r="C430" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -5604,6 +6896,9 @@
           <t>76-623</t>
         </is>
       </c>
+      <c r="C431" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -5616,6 +6911,9 @@
           <t>76-624</t>
         </is>
       </c>
+      <c r="C432" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -5628,6 +6926,9 @@
           <t>76-625</t>
         </is>
       </c>
+      <c r="C433" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -5640,6 +6941,9 @@
           <t>76-626</t>
         </is>
       </c>
+      <c r="C434" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -5652,6 +6956,9 @@
           <t>76-627</t>
         </is>
       </c>
+      <c r="C435" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -5664,6 +6971,9 @@
           <t>76-628</t>
         </is>
       </c>
+      <c r="C436" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -5676,6 +6986,9 @@
           <t>76-629</t>
         </is>
       </c>
+      <c r="C437" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -5688,6 +7001,9 @@
           <t>76-630</t>
         </is>
       </c>
+      <c r="C438" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -5700,6 +7016,9 @@
           <t>76-631</t>
         </is>
       </c>
+      <c r="C439" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -5712,6 +7031,9 @@
           <t>76-632</t>
         </is>
       </c>
+      <c r="C440" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -5724,6 +7046,9 @@
           <t>76-633</t>
         </is>
       </c>
+      <c r="C441" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -5736,6 +7061,9 @@
           <t>76-634</t>
         </is>
       </c>
+      <c r="C442" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -5748,6 +7076,9 @@
           <t>76-635</t>
         </is>
       </c>
+      <c r="C443" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -5760,6 +7091,9 @@
           <t>76-636</t>
         </is>
       </c>
+      <c r="C444" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -5772,6 +7106,9 @@
           <t>76-637</t>
         </is>
       </c>
+      <c r="C445" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -5784,6 +7121,9 @@
           <t>76-638</t>
         </is>
       </c>
+      <c r="C446" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -5796,6 +7136,9 @@
           <t>76-639</t>
         </is>
       </c>
+      <c r="C447" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -5808,6 +7151,9 @@
           <t>76-640</t>
         </is>
       </c>
+      <c r="C448" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -5820,6 +7166,9 @@
           <t>76-641</t>
         </is>
       </c>
+      <c r="C449" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -5832,6 +7181,9 @@
           <t>76-642</t>
         </is>
       </c>
+      <c r="C450" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -5844,6 +7196,9 @@
           <t>76-643</t>
         </is>
       </c>
+      <c r="C451" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -5856,6 +7211,9 @@
           <t>76-644</t>
         </is>
       </c>
+      <c r="C452" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -5868,6 +7226,9 @@
           <t>76-645</t>
         </is>
       </c>
+      <c r="C453" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -5880,6 +7241,9 @@
           <t>76-646</t>
         </is>
       </c>
+      <c r="C454" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -5892,6 +7256,9 @@
           <t>76-647</t>
         </is>
       </c>
+      <c r="C455" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -5904,6 +7271,9 @@
           <t>76-648</t>
         </is>
       </c>
+      <c r="C456" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -5916,6 +7286,9 @@
           <t>76-649</t>
         </is>
       </c>
+      <c r="C457" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -5928,6 +7301,9 @@
           <t>76-650</t>
         </is>
       </c>
+      <c r="C458" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -5940,6 +7316,9 @@
           <t>76-651</t>
         </is>
       </c>
+      <c r="C459" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -5952,6 +7331,9 @@
           <t>76-652</t>
         </is>
       </c>
+      <c r="C460" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -5964,6 +7346,9 @@
           <t>76-653</t>
         </is>
       </c>
+      <c r="C461" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -5976,6 +7361,9 @@
           <t>76-654</t>
         </is>
       </c>
+      <c r="C462" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -5988,6 +7376,9 @@
           <t>76-655</t>
         </is>
       </c>
+      <c r="C463" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -6000,6 +7391,9 @@
           <t>76-656</t>
         </is>
       </c>
+      <c r="C464" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -6012,6 +7406,9 @@
           <t>76-657</t>
         </is>
       </c>
+      <c r="C465" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -6024,6 +7421,9 @@
           <t>76-658</t>
         </is>
       </c>
+      <c r="C466" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -6036,6 +7436,9 @@
           <t>76-659</t>
         </is>
       </c>
+      <c r="C467" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -6048,6 +7451,9 @@
           <t>76-660</t>
         </is>
       </c>
+      <c r="C468" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -6060,6 +7466,9 @@
           <t>76-661</t>
         </is>
       </c>
+      <c r="C469" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -6072,6 +7481,9 @@
           <t>76-662</t>
         </is>
       </c>
+      <c r="C470" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -6084,6 +7496,9 @@
           <t>76-663</t>
         </is>
       </c>
+      <c r="C471" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -6096,6 +7511,9 @@
           <t>76-664</t>
         </is>
       </c>
+      <c r="C472" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -6108,6 +7526,9 @@
           <t>76-665</t>
         </is>
       </c>
+      <c r="C473" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -6120,6 +7541,9 @@
           <t>76-666</t>
         </is>
       </c>
+      <c r="C474" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -6132,6 +7556,9 @@
           <t>76-667</t>
         </is>
       </c>
+      <c r="C475" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -6144,6 +7571,9 @@
           <t>76-668</t>
         </is>
       </c>
+      <c r="C476" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -6156,6 +7586,9 @@
           <t>76-669</t>
         </is>
       </c>
+      <c r="C477" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -6168,6 +7601,9 @@
           <t>76-670</t>
         </is>
       </c>
+      <c r="C478" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -6180,6 +7616,9 @@
           <t>76-671</t>
         </is>
       </c>
+      <c r="C479" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -6192,6 +7631,9 @@
           <t>76-672</t>
         </is>
       </c>
+      <c r="C480" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -6204,6 +7646,9 @@
           <t>76-673</t>
         </is>
       </c>
+      <c r="C481" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -6216,6 +7661,9 @@
           <t>76-674</t>
         </is>
       </c>
+      <c r="C482" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -6228,6 +7676,9 @@
           <t>76-675</t>
         </is>
       </c>
+      <c r="C483" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -6240,6 +7691,9 @@
           <t>76-676</t>
         </is>
       </c>
+      <c r="C484" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -6252,6 +7706,9 @@
           <t>76-677</t>
         </is>
       </c>
+      <c r="C485" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -6264,6 +7721,9 @@
           <t>76-678</t>
         </is>
       </c>
+      <c r="C486" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -6276,6 +7736,9 @@
           <t>76-679</t>
         </is>
       </c>
+      <c r="C487" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -6288,6 +7751,9 @@
           <t>76-680</t>
         </is>
       </c>
+      <c r="C488" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -6300,6 +7766,9 @@
           <t>76-681</t>
         </is>
       </c>
+      <c r="C489" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -6312,6 +7781,9 @@
           <t>76-682</t>
         </is>
       </c>
+      <c r="C490" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -6324,6 +7796,9 @@
           <t>76-683</t>
         </is>
       </c>
+      <c r="C491" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -6336,6 +7811,9 @@
           <t>76-684</t>
         </is>
       </c>
+      <c r="C492" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -6348,6 +7826,9 @@
           <t>76-685</t>
         </is>
       </c>
+      <c r="C493" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -6360,6 +7841,9 @@
           <t>76-686</t>
         </is>
       </c>
+      <c r="C494" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -6372,6 +7856,9 @@
           <t>76-687</t>
         </is>
       </c>
+      <c r="C495" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -6384,6 +7871,9 @@
           <t>76-688</t>
         </is>
       </c>
+      <c r="C496" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -6396,6 +7886,9 @@
           <t>76-689</t>
         </is>
       </c>
+      <c r="C497" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -6408,6 +7901,9 @@
           <t>76-690</t>
         </is>
       </c>
+      <c r="C498" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -6420,6 +7916,9 @@
           <t>76-691</t>
         </is>
       </c>
+      <c r="C499" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -6432,6 +7931,9 @@
           <t>76-692</t>
         </is>
       </c>
+      <c r="C500" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -6444,6 +7946,9 @@
           <t>76-693</t>
         </is>
       </c>
+      <c r="C501" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -6456,6 +7961,9 @@
           <t>76-694</t>
         </is>
       </c>
+      <c r="C502" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -6468,6 +7976,9 @@
           <t>76-695</t>
         </is>
       </c>
+      <c r="C503" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -6480,6 +7991,9 @@
           <t>76-696</t>
         </is>
       </c>
+      <c r="C504" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -6492,6 +8006,9 @@
           <t>76-697</t>
         </is>
       </c>
+      <c r="C505" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -6504,6 +8021,9 @@
           <t>76-698</t>
         </is>
       </c>
+      <c r="C506" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -6516,6 +8036,9 @@
           <t>76-699</t>
         </is>
       </c>
+      <c r="C507" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -6528,6 +8051,9 @@
           <t>76-700</t>
         </is>
       </c>
+      <c r="C508" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -6540,6 +8066,9 @@
           <t>76-701</t>
         </is>
       </c>
+      <c r="C509" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -6552,6 +8081,9 @@
           <t>76-702</t>
         </is>
       </c>
+      <c r="C510" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -6564,6 +8096,9 @@
           <t>76-703</t>
         </is>
       </c>
+      <c r="C511" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -6576,6 +8111,9 @@
           <t>76-704</t>
         </is>
       </c>
+      <c r="C512" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -6588,6 +8126,9 @@
           <t>76-705</t>
         </is>
       </c>
+      <c r="C513" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -6600,6 +8141,9 @@
           <t>76-706</t>
         </is>
       </c>
+      <c r="C514" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -6612,6 +8156,9 @@
           <t>76-707</t>
         </is>
       </c>
+      <c r="C515" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -6624,6 +8171,9 @@
           <t>76-708</t>
         </is>
       </c>
+      <c r="C516" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -6636,6 +8186,9 @@
           <t>76-709</t>
         </is>
       </c>
+      <c r="C517" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -6648,6 +8201,9 @@
           <t>76-710</t>
         </is>
       </c>
+      <c r="C518" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -6660,6 +8216,9 @@
           <t>76-711</t>
         </is>
       </c>
+      <c r="C519" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -6672,6 +8231,9 @@
           <t>76-712</t>
         </is>
       </c>
+      <c r="C520" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -6684,6 +8246,9 @@
           <t>76-713</t>
         </is>
       </c>
+      <c r="C521" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -6696,6 +8261,9 @@
           <t>76-714</t>
         </is>
       </c>
+      <c r="C522" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -6708,6 +8276,9 @@
           <t>76-715</t>
         </is>
       </c>
+      <c r="C523" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -6720,6 +8291,9 @@
           <t>76-716</t>
         </is>
       </c>
+      <c r="C524" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -6732,6 +8306,9 @@
           <t>76-717</t>
         </is>
       </c>
+      <c r="C525" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -6744,6 +8321,9 @@
           <t>76-718</t>
         </is>
       </c>
+      <c r="C526" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -6756,6 +8336,9 @@
           <t>76-719</t>
         </is>
       </c>
+      <c r="C527" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -6768,6 +8351,9 @@
           <t>76-720</t>
         </is>
       </c>
+      <c r="C528" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -6780,6 +8366,9 @@
           <t>76-721</t>
         </is>
       </c>
+      <c r="C529" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -6792,6 +8381,9 @@
           <t>76-722</t>
         </is>
       </c>
+      <c r="C530" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -6804,6 +8396,9 @@
           <t>76-723</t>
         </is>
       </c>
+      <c r="C531" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -6816,6 +8411,9 @@
           <t>76-724</t>
         </is>
       </c>
+      <c r="C532" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -6828,6 +8426,9 @@
           <t>76-725</t>
         </is>
       </c>
+      <c r="C533" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -6840,6 +8441,9 @@
           <t>76-726</t>
         </is>
       </c>
+      <c r="C534" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -6852,6 +8456,9 @@
           <t>76-727</t>
         </is>
       </c>
+      <c r="C535" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -6864,6 +8471,9 @@
           <t>76-728</t>
         </is>
       </c>
+      <c r="C536" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -6876,6 +8486,9 @@
           <t>76-729</t>
         </is>
       </c>
+      <c r="C537" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -6888,6 +8501,9 @@
           <t>76-730</t>
         </is>
       </c>
+      <c r="C538" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -6900,6 +8516,9 @@
           <t>76-731</t>
         </is>
       </c>
+      <c r="C539" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -6912,6 +8531,9 @@
           <t>76-732</t>
         </is>
       </c>
+      <c r="C540" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -6924,6 +8546,9 @@
           <t>76-733</t>
         </is>
       </c>
+      <c r="C541" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -6936,6 +8561,9 @@
           <t>76-734</t>
         </is>
       </c>
+      <c r="C542" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -6948,6 +8576,9 @@
           <t>76-735</t>
         </is>
       </c>
+      <c r="C543" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -6960,6 +8591,9 @@
           <t>76-736</t>
         </is>
       </c>
+      <c r="C544" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -6972,6 +8606,9 @@
           <t>76-737</t>
         </is>
       </c>
+      <c r="C545" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -6984,6 +8621,9 @@
           <t>76-738</t>
         </is>
       </c>
+      <c r="C546" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -6996,6 +8636,9 @@
           <t>76-739</t>
         </is>
       </c>
+      <c r="C547" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -7008,6 +8651,9 @@
           <t>76-740</t>
         </is>
       </c>
+      <c r="C548" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -7020,6 +8666,9 @@
           <t>76-741</t>
         </is>
       </c>
+      <c r="C549" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -7032,6 +8681,9 @@
           <t>76-742</t>
         </is>
       </c>
+      <c r="C550" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -7044,6 +8696,9 @@
           <t>76-743</t>
         </is>
       </c>
+      <c r="C551" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -7056,6 +8711,9 @@
           <t>76-744</t>
         </is>
       </c>
+      <c r="C552" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -7068,6 +8726,9 @@
           <t>76-745</t>
         </is>
       </c>
+      <c r="C553" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -7080,6 +8741,9 @@
           <t>76-746</t>
         </is>
       </c>
+      <c r="C554" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -7092,6 +8756,9 @@
           <t>76-747</t>
         </is>
       </c>
+      <c r="C555" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -7104,6 +8771,9 @@
           <t>76-748</t>
         </is>
       </c>
+      <c r="C556" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -7116,6 +8786,9 @@
           <t>76-749</t>
         </is>
       </c>
+      <c r="C557" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -7128,6 +8801,9 @@
           <t>76-750</t>
         </is>
       </c>
+      <c r="C558" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -7140,6 +8816,9 @@
           <t>76-751</t>
         </is>
       </c>
+      <c r="C559" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -7152,6 +8831,9 @@
           <t>76-752</t>
         </is>
       </c>
+      <c r="C560" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -7164,6 +8846,9 @@
           <t>76-753</t>
         </is>
       </c>
+      <c r="C561" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -7176,6 +8861,9 @@
           <t>76-754</t>
         </is>
       </c>
+      <c r="C562" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -7188,6 +8876,9 @@
           <t>76-755</t>
         </is>
       </c>
+      <c r="C563" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -7200,6 +8891,9 @@
           <t>76-756</t>
         </is>
       </c>
+      <c r="C564" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -7212,6 +8906,9 @@
           <t>76-757</t>
         </is>
       </c>
+      <c r="C565" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -7224,6 +8921,9 @@
           <t>76-758</t>
         </is>
       </c>
+      <c r="C566" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -7236,6 +8936,9 @@
           <t>76-759</t>
         </is>
       </c>
+      <c r="C567" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -7248,6 +8951,9 @@
           <t>76-760</t>
         </is>
       </c>
+      <c r="C568" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -7260,6 +8966,9 @@
           <t>76-761</t>
         </is>
       </c>
+      <c r="C569" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -7272,6 +8981,9 @@
           <t>76-762</t>
         </is>
       </c>
+      <c r="C570" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -7284,6 +8996,9 @@
           <t>76-763</t>
         </is>
       </c>
+      <c r="C571" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -7296,6 +9011,9 @@
           <t>76-764</t>
         </is>
       </c>
+      <c r="C572" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -7308,6 +9026,9 @@
           <t>76-765</t>
         </is>
       </c>
+      <c r="C573" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -7320,6 +9041,9 @@
           <t>76-766</t>
         </is>
       </c>
+      <c r="C574" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -7332,6 +9056,9 @@
           <t>76-767</t>
         </is>
       </c>
+      <c r="C575" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -7344,6 +9071,9 @@
           <t>76-768</t>
         </is>
       </c>
+      <c r="C576" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -7356,6 +9086,9 @@
           <t>76-769</t>
         </is>
       </c>
+      <c r="C577" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -7368,6 +9101,9 @@
           <t>76-770</t>
         </is>
       </c>
+      <c r="C578" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -7380,6 +9116,9 @@
           <t>76-771</t>
         </is>
       </c>
+      <c r="C579" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -7392,6 +9131,9 @@
           <t>76-772</t>
         </is>
       </c>
+      <c r="C580" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -7404,6 +9146,9 @@
           <t>76-773</t>
         </is>
       </c>
+      <c r="C581" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -7416,6 +9161,9 @@
           <t>76-774</t>
         </is>
       </c>
+      <c r="C582" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -7428,6 +9176,9 @@
           <t>76-775</t>
         </is>
       </c>
+      <c r="C583" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -7440,6 +9191,9 @@
           <t>76-776</t>
         </is>
       </c>
+      <c r="C584" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -7452,6 +9206,9 @@
           <t>76-777</t>
         </is>
       </c>
+      <c r="C585" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -7464,6 +9221,9 @@
           <t>76-778</t>
         </is>
       </c>
+      <c r="C586" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -7476,6 +9236,9 @@
           <t>76-779</t>
         </is>
       </c>
+      <c r="C587" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -7488,6 +9251,9 @@
           <t>76-780</t>
         </is>
       </c>
+      <c r="C588" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -7500,6 +9266,9 @@
           <t>76-781</t>
         </is>
       </c>
+      <c r="C589" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -7512,6 +9281,9 @@
           <t>76-782</t>
         </is>
       </c>
+      <c r="C590" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -7524,6 +9296,9 @@
           <t>76-783</t>
         </is>
       </c>
+      <c r="C591" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -7536,6 +9311,9 @@
           <t>76-784</t>
         </is>
       </c>
+      <c r="C592" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -7548,6 +9326,9 @@
           <t>76-785</t>
         </is>
       </c>
+      <c r="C593" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -7560,6 +9341,9 @@
           <t>76-786</t>
         </is>
       </c>
+      <c r="C594" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -7572,6 +9356,9 @@
           <t>76-787</t>
         </is>
       </c>
+      <c r="C595" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -7584,6 +9371,9 @@
           <t>76-788</t>
         </is>
       </c>
+      <c r="C596" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -7596,6 +9386,9 @@
           <t>76-789</t>
         </is>
       </c>
+      <c r="C597" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -7608,6 +9401,9 @@
           <t>76-790</t>
         </is>
       </c>
+      <c r="C598" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -7620,6 +9416,9 @@
           <t>76-791</t>
         </is>
       </c>
+      <c r="C599" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -7632,6 +9431,9 @@
           <t>76-792</t>
         </is>
       </c>
+      <c r="C600" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -7644,6 +9446,9 @@
           <t>76-793</t>
         </is>
       </c>
+      <c r="C601" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -7656,6 +9461,9 @@
           <t>76-794</t>
         </is>
       </c>
+      <c r="C602" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -7668,6 +9476,9 @@
           <t>76-795</t>
         </is>
       </c>
+      <c r="C603" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -7680,6 +9491,9 @@
           <t>76-796</t>
         </is>
       </c>
+      <c r="C604" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -7692,6 +9506,9 @@
           <t>76-797</t>
         </is>
       </c>
+      <c r="C605" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -7704,6 +9521,9 @@
           <t>76-798</t>
         </is>
       </c>
+      <c r="C606" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -7716,6 +9536,9 @@
           <t>76-799</t>
         </is>
       </c>
+      <c r="C607" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -7728,6 +9551,9 @@
           <t>76-800</t>
         </is>
       </c>
+      <c r="C608" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -7740,6 +9566,9 @@
           <t>76-801</t>
         </is>
       </c>
+      <c r="C609" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -7752,6 +9581,9 @@
           <t>76-802</t>
         </is>
       </c>
+      <c r="C610" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -7764,6 +9596,9 @@
           <t>76-803</t>
         </is>
       </c>
+      <c r="C611" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -7776,6 +9611,9 @@
           <t>76-804</t>
         </is>
       </c>
+      <c r="C612" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -7788,6 +9626,9 @@
           <t>76-805</t>
         </is>
       </c>
+      <c r="C613" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -7800,6 +9641,9 @@
           <t>76-806</t>
         </is>
       </c>
+      <c r="C614" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -7812,6 +9656,9 @@
           <t>76-807</t>
         </is>
       </c>
+      <c r="C615" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -7824,6 +9671,9 @@
           <t>76-808</t>
         </is>
       </c>
+      <c r="C616" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -7836,6 +9686,9 @@
           <t>76-809</t>
         </is>
       </c>
+      <c r="C617" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -7848,6 +9701,9 @@
           <t>76-810</t>
         </is>
       </c>
+      <c r="C618" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -7860,6 +9716,9 @@
           <t>76-811</t>
         </is>
       </c>
+      <c r="C619" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -7872,6 +9731,9 @@
           <t>76-812</t>
         </is>
       </c>
+      <c r="C620" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -7884,6 +9746,9 @@
           <t>76-813</t>
         </is>
       </c>
+      <c r="C621" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -7896,6 +9761,9 @@
           <t>76-814</t>
         </is>
       </c>
+      <c r="C622" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -7908,6 +9776,9 @@
           <t>76-815</t>
         </is>
       </c>
+      <c r="C623" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -7920,6 +9791,9 @@
           <t>76-816</t>
         </is>
       </c>
+      <c r="C624" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -7932,6 +9806,9 @@
           <t>76-817</t>
         </is>
       </c>
+      <c r="C625" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -7944,6 +9821,9 @@
           <t>76-818</t>
         </is>
       </c>
+      <c r="C626" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -7956,6 +9836,9 @@
           <t>76-819</t>
         </is>
       </c>
+      <c r="C627" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -7968,6 +9851,9 @@
           <t>76-820</t>
         </is>
       </c>
+      <c r="C628" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -7980,6 +9866,9 @@
           <t>76-821</t>
         </is>
       </c>
+      <c r="C629" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -7992,6 +9881,9 @@
           <t>76-822</t>
         </is>
       </c>
+      <c r="C630" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -8004,6 +9896,9 @@
           <t>76-823</t>
         </is>
       </c>
+      <c r="C631" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -8016,6 +9911,9 @@
           <t>76-824</t>
         </is>
       </c>
+      <c r="C632" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -8028,6 +9926,9 @@
           <t>76-825</t>
         </is>
       </c>
+      <c r="C633" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -8040,6 +9941,9 @@
           <t>76-826</t>
         </is>
       </c>
+      <c r="C634" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -8052,6 +9956,9 @@
           <t>76-827</t>
         </is>
       </c>
+      <c r="C635" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -8064,6 +9971,9 @@
           <t>76-828</t>
         </is>
       </c>
+      <c r="C636" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -8076,6 +9986,9 @@
           <t>76-829</t>
         </is>
       </c>
+      <c r="C637" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -8088,6 +10001,9 @@
           <t>76-830</t>
         </is>
       </c>
+      <c r="C638" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -8100,6 +10016,9 @@
           <t>76-831</t>
         </is>
       </c>
+      <c r="C639" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -8112,6 +10031,9 @@
           <t>76-832</t>
         </is>
       </c>
+      <c r="C640" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -8124,6 +10046,9 @@
           <t>76-833</t>
         </is>
       </c>
+      <c r="C641" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -8136,6 +10061,9 @@
           <t>76-834</t>
         </is>
       </c>
+      <c r="C642" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -8148,6 +10076,9 @@
           <t>76-835</t>
         </is>
       </c>
+      <c r="C643" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -8160,6 +10091,9 @@
           <t>76-836</t>
         </is>
       </c>
+      <c r="C644" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -8172,6 +10106,9 @@
           <t>76-837</t>
         </is>
       </c>
+      <c r="C645" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -8184,6 +10121,9 @@
           <t>76-838</t>
         </is>
       </c>
+      <c r="C646" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -8196,6 +10136,9 @@
           <t>76-839</t>
         </is>
       </c>
+      <c r="C647" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -8208,6 +10151,9 @@
           <t>76-840</t>
         </is>
       </c>
+      <c r="C648" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -8220,6 +10166,9 @@
           <t>76-841</t>
         </is>
       </c>
+      <c r="C649" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -8232,6 +10181,9 @@
           <t>76-842</t>
         </is>
       </c>
+      <c r="C650" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -8244,6 +10196,9 @@
           <t>76-843</t>
         </is>
       </c>
+      <c r="C651" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -8256,6 +10211,9 @@
           <t>76-844</t>
         </is>
       </c>
+      <c r="C652" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -8268,6 +10226,9 @@
           <t>76-845</t>
         </is>
       </c>
+      <c r="C653" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -8280,6 +10241,9 @@
           <t>76-846</t>
         </is>
       </c>
+      <c r="C654" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -8292,6 +10256,9 @@
           <t>76-847</t>
         </is>
       </c>
+      <c r="C655" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -8304,6 +10271,9 @@
           <t>76-848</t>
         </is>
       </c>
+      <c r="C656" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -8316,6 +10286,9 @@
           <t>76-849</t>
         </is>
       </c>
+      <c r="C657" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -8328,6 +10301,9 @@
           <t>76-850</t>
         </is>
       </c>
+      <c r="C658" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -8340,6 +10316,9 @@
           <t>76-851</t>
         </is>
       </c>
+      <c r="C659" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -8352,6 +10331,9 @@
           <t>76-852</t>
         </is>
       </c>
+      <c r="C660" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -8364,6 +10346,9 @@
           <t>76-853</t>
         </is>
       </c>
+      <c r="C661" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -8376,6 +10361,9 @@
           <t>76-854</t>
         </is>
       </c>
+      <c r="C662" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -8388,6 +10376,9 @@
           <t>76-855</t>
         </is>
       </c>
+      <c r="C663" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -8400,6 +10391,9 @@
           <t>76-856</t>
         </is>
       </c>
+      <c r="C664" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -8412,6 +10406,9 @@
           <t>76-857</t>
         </is>
       </c>
+      <c r="C665" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -8424,6 +10421,9 @@
           <t>76-858</t>
         </is>
       </c>
+      <c r="C666" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -8436,6 +10436,9 @@
           <t>76-859</t>
         </is>
       </c>
+      <c r="C667" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -8448,6 +10451,9 @@
           <t>76-860</t>
         </is>
       </c>
+      <c r="C668" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -8460,6 +10466,9 @@
           <t>76-861</t>
         </is>
       </c>
+      <c r="C669" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -8472,6 +10481,9 @@
           <t>76-862</t>
         </is>
       </c>
+      <c r="C670" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -8484,6 +10496,9 @@
           <t>76-863</t>
         </is>
       </c>
+      <c r="C671" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -8496,6 +10511,9 @@
           <t>76-864</t>
         </is>
       </c>
+      <c r="C672" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -8508,6 +10526,9 @@
           <t>76-865</t>
         </is>
       </c>
+      <c r="C673" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -8520,6 +10541,9 @@
           <t>76-866</t>
         </is>
       </c>
+      <c r="C674" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -8532,6 +10556,9 @@
           <t>76-867</t>
         </is>
       </c>
+      <c r="C675" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -8544,6 +10571,9 @@
           <t>76-868</t>
         </is>
       </c>
+      <c r="C676" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -8556,6 +10586,9 @@
           <t>76-869</t>
         </is>
       </c>
+      <c r="C677" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -8568,6 +10601,9 @@
           <t>76-870</t>
         </is>
       </c>
+      <c r="C678" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -8580,6 +10616,9 @@
           <t>76-871</t>
         </is>
       </c>
+      <c r="C679" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -8592,6 +10631,9 @@
           <t>76-872</t>
         </is>
       </c>
+      <c r="C680" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -8604,6 +10646,9 @@
           <t>76-873</t>
         </is>
       </c>
+      <c r="C681" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -8616,6 +10661,9 @@
           <t>76-874</t>
         </is>
       </c>
+      <c r="C682" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -8628,6 +10676,9 @@
           <t>76-875</t>
         </is>
       </c>
+      <c r="C683" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -8640,6 +10691,9 @@
           <t>76-876</t>
         </is>
       </c>
+      <c r="C684" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -8652,6 +10706,9 @@
           <t>76-877</t>
         </is>
       </c>
+      <c r="C685" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -8664,6 +10721,9 @@
           <t>76-878</t>
         </is>
       </c>
+      <c r="C686" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -8676,6 +10736,9 @@
           <t>76-879</t>
         </is>
       </c>
+      <c r="C687" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -8688,6 +10751,9 @@
           <t>76-880</t>
         </is>
       </c>
+      <c r="C688" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -8700,6 +10766,9 @@
           <t>76-881</t>
         </is>
       </c>
+      <c r="C689" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -8712,6 +10781,9 @@
           <t>76-882</t>
         </is>
       </c>
+      <c r="C690" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -8724,6 +10796,9 @@
           <t>76-883</t>
         </is>
       </c>
+      <c r="C691" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -8736,6 +10811,9 @@
           <t>76-884</t>
         </is>
       </c>
+      <c r="C692" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -8748,6 +10826,9 @@
           <t>76-885</t>
         </is>
       </c>
+      <c r="C693" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -8760,6 +10841,9 @@
           <t>76-886</t>
         </is>
       </c>
+      <c r="C694" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -8772,6 +10856,9 @@
           <t>76-887</t>
         </is>
       </c>
+      <c r="C695" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -8784,6 +10871,9 @@
           <t>76-888</t>
         </is>
       </c>
+      <c r="C696" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -8796,6 +10886,9 @@
           <t>76-889</t>
         </is>
       </c>
+      <c r="C697" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -8808,6 +10901,9 @@
           <t>76-890</t>
         </is>
       </c>
+      <c r="C698" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -8820,6 +10916,9 @@
           <t>76-891</t>
         </is>
       </c>
+      <c r="C699" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -8832,6 +10931,9 @@
           <t>76-892</t>
         </is>
       </c>
+      <c r="C700" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -8844,6 +10946,9 @@
           <t>76-893</t>
         </is>
       </c>
+      <c r="C701" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -8856,6 +10961,9 @@
           <t>76-894</t>
         </is>
       </c>
+      <c r="C702" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -8868,6 +10976,9 @@
           <t>76-895</t>
         </is>
       </c>
+      <c r="C703" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -8880,6 +10991,9 @@
           <t>76-896</t>
         </is>
       </c>
+      <c r="C704" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -8892,6 +11006,9 @@
           <t>76-897</t>
         </is>
       </c>
+      <c r="C705" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -8904,6 +11021,9 @@
           <t>76-898</t>
         </is>
       </c>
+      <c r="C706" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -8916,6 +11036,9 @@
           <t>76-899</t>
         </is>
       </c>
+      <c r="C707" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -8928,6 +11051,9 @@
           <t>76-900</t>
         </is>
       </c>
+      <c r="C708" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -8940,6 +11066,9 @@
           <t>76-901</t>
         </is>
       </c>
+      <c r="C709" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -8952,6 +11081,9 @@
           <t>76-902</t>
         </is>
       </c>
+      <c r="C710" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -8964,6 +11096,9 @@
           <t>76-903</t>
         </is>
       </c>
+      <c r="C711" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -8976,6 +11111,9 @@
           <t>76-904</t>
         </is>
       </c>
+      <c r="C712" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -8988,6 +11126,9 @@
           <t>76-905</t>
         </is>
       </c>
+      <c r="C713" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -9000,6 +11141,9 @@
           <t>76-906</t>
         </is>
       </c>
+      <c r="C714" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -9012,6 +11156,9 @@
           <t>76-907</t>
         </is>
       </c>
+      <c r="C715" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -9024,6 +11171,9 @@
           <t>76-908</t>
         </is>
       </c>
+      <c r="C716" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -9036,6 +11186,9 @@
           <t>76-909</t>
         </is>
       </c>
+      <c r="C717" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -9048,6 +11201,9 @@
           <t>76-910</t>
         </is>
       </c>
+      <c r="C718" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -9060,6 +11216,9 @@
           <t>76-911</t>
         </is>
       </c>
+      <c r="C719" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -9072,6 +11231,9 @@
           <t>76-912</t>
         </is>
       </c>
+      <c r="C720" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -9084,6 +11246,9 @@
           <t>76-913</t>
         </is>
       </c>
+      <c r="C721" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -9096,6 +11261,9 @@
           <t>76-914</t>
         </is>
       </c>
+      <c r="C722" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -9108,6 +11276,9 @@
           <t>76-915</t>
         </is>
       </c>
+      <c r="C723" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -9120,6 +11291,9 @@
           <t>76-916</t>
         </is>
       </c>
+      <c r="C724" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -9132,6 +11306,9 @@
           <t>76-917</t>
         </is>
       </c>
+      <c r="C725" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -9144,6 +11321,9 @@
           <t>76-918</t>
         </is>
       </c>
+      <c r="C726" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -9156,6 +11336,9 @@
           <t>76-919</t>
         </is>
       </c>
+      <c r="C727" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -9168,6 +11351,9 @@
           <t>76-920</t>
         </is>
       </c>
+      <c r="C728" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -9180,6 +11366,9 @@
           <t>76-921</t>
         </is>
       </c>
+      <c r="C729" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -9192,6 +11381,9 @@
           <t>76-922</t>
         </is>
       </c>
+      <c r="C730" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -9204,6 +11396,9 @@
           <t>76-923</t>
         </is>
       </c>
+      <c r="C731" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -9216,6 +11411,9 @@
           <t>76-924</t>
         </is>
       </c>
+      <c r="C732" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -9228,6 +11426,9 @@
           <t>76-925</t>
         </is>
       </c>
+      <c r="C733" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -9240,6 +11441,9 @@
           <t>76-926</t>
         </is>
       </c>
+      <c r="C734" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -9252,6 +11456,9 @@
           <t>76-927</t>
         </is>
       </c>
+      <c r="C735" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -9264,6 +11471,9 @@
           <t>76-928</t>
         </is>
       </c>
+      <c r="C736" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -9276,6 +11486,9 @@
           <t>76-929</t>
         </is>
       </c>
+      <c r="C737" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -9288,6 +11501,9 @@
           <t>76-930</t>
         </is>
       </c>
+      <c r="C738" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -9300,6 +11516,9 @@
           <t>76-931</t>
         </is>
       </c>
+      <c r="C739" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -9312,6 +11531,9 @@
           <t>76-932</t>
         </is>
       </c>
+      <c r="C740" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -9324,6 +11546,9 @@
           <t>76-933</t>
         </is>
       </c>
+      <c r="C741" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -9336,6 +11561,9 @@
           <t>76-934</t>
         </is>
       </c>
+      <c r="C742" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -9348,6 +11576,9 @@
           <t>76-935</t>
         </is>
       </c>
+      <c r="C743" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -9360,6 +11591,9 @@
           <t>76-936</t>
         </is>
       </c>
+      <c r="C744" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -9372,6 +11606,9 @@
           <t>76-937</t>
         </is>
       </c>
+      <c r="C745" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -9384,6 +11621,9 @@
           <t>76-938</t>
         </is>
       </c>
+      <c r="C746" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -9396,6 +11636,9 @@
           <t>76-939</t>
         </is>
       </c>
+      <c r="C747" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -9408,6 +11651,9 @@
           <t>76-940</t>
         </is>
       </c>
+      <c r="C748" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -9420,6 +11666,9 @@
           <t>76-941</t>
         </is>
       </c>
+      <c r="C749" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -9432,6 +11681,9 @@
           <t>76-942</t>
         </is>
       </c>
+      <c r="C750" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -9444,6 +11696,9 @@
           <t>76-943</t>
         </is>
       </c>
+      <c r="C751" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -9456,6 +11711,9 @@
           <t>76-944</t>
         </is>
       </c>
+      <c r="C752" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -9468,6 +11726,9 @@
           <t>76-945</t>
         </is>
       </c>
+      <c r="C753" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -9480,6 +11741,9 @@
           <t>76-946</t>
         </is>
       </c>
+      <c r="C754" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -9492,6 +11756,9 @@
           <t>76-947</t>
         </is>
       </c>
+      <c r="C755" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -9504,6 +11771,9 @@
           <t>76-948</t>
         </is>
       </c>
+      <c r="C756" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -9516,6 +11786,9 @@
           <t>76-949</t>
         </is>
       </c>
+      <c r="C757" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -9528,6 +11801,9 @@
           <t>76-950</t>
         </is>
       </c>
+      <c r="C758" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -9540,6 +11816,9 @@
           <t>76-951</t>
         </is>
       </c>
+      <c r="C759" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -9552,6 +11831,9 @@
           <t>76-952</t>
         </is>
       </c>
+      <c r="C760" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -9564,6 +11846,9 @@
           <t>76-953</t>
         </is>
       </c>
+      <c r="C761" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -9576,6 +11861,9 @@
           <t>76-954</t>
         </is>
       </c>
+      <c r="C762" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -9588,6 +11876,9 @@
           <t>76-955</t>
         </is>
       </c>
+      <c r="C763" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -9600,6 +11891,9 @@
           <t>76-956</t>
         </is>
       </c>
+      <c r="C764" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -9612,6 +11906,9 @@
           <t>76-957</t>
         </is>
       </c>
+      <c r="C765" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -9624,6 +11921,9 @@
           <t>76-958</t>
         </is>
       </c>
+      <c r="C766" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -9636,6 +11936,9 @@
           <t>76-959</t>
         </is>
       </c>
+      <c r="C767" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -9648,6 +11951,9 @@
           <t>76-960</t>
         </is>
       </c>
+      <c r="C768" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -9660,6 +11966,9 @@
           <t>76-961</t>
         </is>
       </c>
+      <c r="C769" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -9672,6 +11981,9 @@
           <t>76-962</t>
         </is>
       </c>
+      <c r="C770" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -9684,6 +11996,9 @@
           <t>76-963</t>
         </is>
       </c>
+      <c r="C771" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -9696,6 +12011,9 @@
           <t>76-964</t>
         </is>
       </c>
+      <c r="C772" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -9708,6 +12026,9 @@
           <t>76-965</t>
         </is>
       </c>
+      <c r="C773" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -9720,6 +12041,9 @@
           <t>76-966</t>
         </is>
       </c>
+      <c r="C774" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -9732,6 +12056,9 @@
           <t>76-967</t>
         </is>
       </c>
+      <c r="C775" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -9744,6 +12071,9 @@
           <t>76-968</t>
         </is>
       </c>
+      <c r="C776" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -9756,6 +12086,9 @@
           <t>76-969</t>
         </is>
       </c>
+      <c r="C777" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -9768,6 +12101,9 @@
           <t>76-970</t>
         </is>
       </c>
+      <c r="C778" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -9780,6 +12116,9 @@
           <t>76-971</t>
         </is>
       </c>
+      <c r="C779" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -9792,6 +12131,9 @@
           <t>76-972</t>
         </is>
       </c>
+      <c r="C780" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -9804,6 +12146,9 @@
           <t>76-973</t>
         </is>
       </c>
+      <c r="C781" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -9816,6 +12161,9 @@
           <t>76-974</t>
         </is>
       </c>
+      <c r="C782" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -9828,6 +12176,9 @@
           <t>76-975</t>
         </is>
       </c>
+      <c r="C783" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -9840,6 +12191,9 @@
           <t>76-976</t>
         </is>
       </c>
+      <c r="C784" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -9852,6 +12206,9 @@
           <t>76-977</t>
         </is>
       </c>
+      <c r="C785" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -9864,6 +12221,9 @@
           <t>76-978</t>
         </is>
       </c>
+      <c r="C786" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -9876,6 +12236,9 @@
           <t>76-979</t>
         </is>
       </c>
+      <c r="C787" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -9888,6 +12251,9 @@
           <t>76-980</t>
         </is>
       </c>
+      <c r="C788" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -9900,6 +12266,9 @@
           <t>76-981</t>
         </is>
       </c>
+      <c r="C789" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -9912,6 +12281,9 @@
           <t>76-982</t>
         </is>
       </c>
+      <c r="C790" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -9924,6 +12296,9 @@
           <t>76-983</t>
         </is>
       </c>
+      <c r="C791" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -9936,6 +12311,9 @@
           <t>76-984</t>
         </is>
       </c>
+      <c r="C792" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -9948,6 +12326,9 @@
           <t>76-985</t>
         </is>
       </c>
+      <c r="C793" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -9960,6 +12341,9 @@
           <t>76-986</t>
         </is>
       </c>
+      <c r="C794" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -9972,6 +12356,9 @@
           <t>76-987</t>
         </is>
       </c>
+      <c r="C795" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -9984,6 +12371,9 @@
           <t>76-988</t>
         </is>
       </c>
+      <c r="C796" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -9996,6 +12386,9 @@
           <t>76-989</t>
         </is>
       </c>
+      <c r="C797" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -10008,6 +12401,9 @@
           <t>76-990</t>
         </is>
       </c>
+      <c r="C798" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -10020,6 +12416,9 @@
           <t>76-991</t>
         </is>
       </c>
+      <c r="C799" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -10032,6 +12431,9 @@
           <t>76-992</t>
         </is>
       </c>
+      <c r="C800" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -10044,6 +12446,9 @@
           <t>76-993</t>
         </is>
       </c>
+      <c r="C801" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -10056,6 +12461,9 @@
           <t>76-994</t>
         </is>
       </c>
+      <c r="C802" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -10068,6 +12476,9 @@
           <t>76-995</t>
         </is>
       </c>
+      <c r="C803" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -10080,6 +12491,9 @@
           <t>76-996</t>
         </is>
       </c>
+      <c r="C804" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -10092,6 +12506,9 @@
           <t>76-997</t>
         </is>
       </c>
+      <c r="C805" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -10104,6 +12521,9 @@
           <t>76-998</t>
         </is>
       </c>
+      <c r="C806" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -10115,6 +12535,9 @@
         <is>
           <t>76-999</t>
         </is>
+      </c>
+      <c r="C807" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/audit/ba/ba_gened.xlsx
+++ b/data/audit/ba/ba_gened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,66 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EY2022 Qatar Business Administration - University Core Requirements</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Scientific Reasoning</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EY2022 Qatar Business Administration - University Core Requirements</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Informational Literacy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EY2022 Qatar Business Administration - University Core Requirements</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Global, Cultural, and Diverse Perspectives</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EY2022 Qatar Business Administration - University Core Requirements</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free Electives</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
